--- a/testData/Userdata.xlsx
+++ b/testData/Userdata.xlsx
@@ -1,42 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f9eb6a56641bd7a/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{20007EAC-761A-49CA-BA38-63FB4FAF1C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C33C3D95-6B01-4D95-B045-2EB7C846A951}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7CA4ECCD-1F82-4788-BDE0-3AD03B289DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F55E7DBC-2ACF-4CB2-926B-52D5B839F56C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F55E7DBC-2ACF-4CB2-926B-52D5B839F56C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:R17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>UserID</t>
   </si>
@@ -102,6 +88,30 @@
   </si>
   <si>
     <t>test@3</t>
+  </si>
+  <si>
+    <t>userID</t>
+  </si>
+  <si>
+    <t>petId</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>shipDate</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>2025-12-31T14:34:31.054+0000</t>
+  </si>
+  <si>
+    <t>placed</t>
   </si>
 </sst>
 </file>
@@ -125,7 +135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,6 +151,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -172,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -183,6 +199,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34675385-DB35-4E54-BAC3-D2FB63EB2D90}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="103" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,4 +648,146 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4ACD5AD-3462-43C9-A1C4-0AC8AAE4A519}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>101</v>
+      </c>
+      <c r="B2" s="5">
+        <v>201</v>
+      </c>
+      <c r="C2" s="5">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>102</v>
+      </c>
+      <c r="B3" s="5">
+        <v>202</v>
+      </c>
+      <c r="C3" s="5">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>103</v>
+      </c>
+      <c r="B4" s="5">
+        <v>203</v>
+      </c>
+      <c r="C4" s="5">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>104</v>
+      </c>
+      <c r="B5" s="5">
+        <v>204</v>
+      </c>
+      <c r="C5" s="5">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>105</v>
+      </c>
+      <c r="B6" s="5">
+        <v>205</v>
+      </c>
+      <c r="C6" s="5">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>